--- a/biology/Botanique/Carpentia/Carpentia.xlsx
+++ b/biology/Botanique/Carpentia/Carpentia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cressa est un genre de plantes de la famille des Convolvulaceae.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (22 janvier 2019)[3] et The Plant List            (22 janvier 2019)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (22 janvier 2019) et The Plant List            (22 janvier 2019) :
 Cressa cretica L.
 Cressa nudicaulis Griseb.
 Cressa truxillensis Kunth
-Selon Catalogue of Life                                  (22 janvier 2019)[5] :
+Selon Catalogue of Life                                  (22 janvier 2019) :
 Cressa abyssicola G. O. Sars, 1879
 Cressa bereskini Gurjanova, 1936
 Cressa carinata Stephensen, 1931
@@ -527,18 +541,18 @@
 Cressa mediterranea Ruffo, 1979
 Cressa minuta Boeck, 1871
 Cressa quinquedentata Stephensen, 1931
-Selon GRIN            (22 janvier 2019)[6] :
+Selon GRIN            (22 janvier 2019) :
 Cressa spp.
 Cressa truxillensis Kunth
-Selon ITIS      (22 janvier 2019)[7] :
+Selon ITIS      (22 janvier 2019) :
 Cressa nudicaulis Griseb.
 Cressa truxillensis Kunth
-Selon World Checklist of Selected Plant Families (WCSP)  (22 janvier 2019)[8] :
+Selon World Checklist of Selected Plant Families (WCSP)  (22 janvier 2019) :
 Cressa australis R.Br. (1810)
 Cressa cretica L. (1753)
 Cressa nudicaulis Griseb. (1879)
 Cressa truxillensis Kunth (1819)
-Selon Tropicos                                           (22 janvier 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (22 janvier 2019) (Attention liste brute contenant possiblement des synonymes) :
 Cressa aphylla A. Heller
 Cressa arabica Forssk.
 Cressa arenaria Willd. ex Roem. &amp; Schult.
